--- a/src/main/resources/Contactos de asistencia.xlsx
+++ b/src/main/resources/Contactos de asistencia.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cerrajería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grua pequeña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grua Mediana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grua grande</t>
   </si>
   <si>
     <t xml:space="preserve">Sacatepequez</t>
@@ -689,13 +698,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.25"/>
@@ -704,7 +713,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,20 +746,29 @@
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>12345678</v>
@@ -759,33 +777,42 @@
         <v>30</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>12345679</v>
@@ -794,33 +821,42 @@
         <v>45</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>12345680</v>
@@ -829,33 +865,42 @@
         <v>55</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>12345681</v>
@@ -864,33 +909,42 @@
         <v>55</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>12345682</v>
@@ -899,33 +953,42 @@
         <v>53</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>12345683</v>
@@ -934,33 +997,42 @@
         <v>65</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>12345684</v>
@@ -969,19 +1041,28 @@
         <v>88</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Contactos de asistencia.xlsx
+++ b/src/main/resources/Contactos de asistencia.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ubicacion maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitud</t>
   </si>
   <si>
     <t xml:space="preserve">Opción # 1</t>
@@ -216,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -287,6 +293,14 @@
       <name val="Arial Narrow"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Narrow"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -476,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,15 +515,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,7 +535,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,11 +543,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,59 +567,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,11 +643,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,19 +732,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,313 +790,361 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>14.5756736732587</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>-90.546856791032</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>12345678</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="H2" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>14.5206901643329</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>-90.5918066468794</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>12345679</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="H3" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>18</v>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>14.6084525078562</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>-90.5352887198671</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>12345680</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>14.6347999504637</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>-90.4988548003249</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>12345681</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="H5" s="21" t="n">
         <v>55</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>18</v>
+      <c r="I5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="A6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>14.6475953483417</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>-90.5790942756871</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>12345682</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="H6" s="21" t="n">
         <v>53</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>19</v>
+      <c r="I6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="29" t="n">
+        <v>14.5477033095067</v>
+      </c>
+      <c r="E7" s="30" t="n">
+        <v>-90.5993658969058</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>12345683</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="H7" s="32" t="n">
         <v>65</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>18</v>
+      <c r="I7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="37" t="n">
+        <v>14.6557990747769</v>
+      </c>
+      <c r="E8" s="38" t="n">
+        <v>-90.4529562815965</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>12345684</v>
       </c>
-      <c r="F8" s="28" t="n">
+      <c r="H8" s="32" t="n">
         <v>88</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>18</v>
+      <c r="I8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Contactos de asistencia.xlsx
+++ b/src/main/resources/Contactos de asistencia.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
@@ -144,8 +144,7 @@
     <t xml:space="preserve">Sacatepequez</t>
   </si>
   <si>
-    <t xml:space="preserve">San Lucas
-Sacatepéquez</t>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">de, Av. Petapa 41-46, Cdad. de Guatemala 01012</t>
@@ -160,18 +159,12 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Antigua Guatemala / Santa Lucia Milpas altas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venecia I, 1 Avenida 3 Calle, Villa Nueva</t>
   </si>
   <si>
     <t xml:space="preserve">Cerrajería Rey Lock</t>
   </si>
   <si>
-    <t xml:space="preserve">Pastores -  Ciudad Vieja - Jocotenango</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 Calle 12-41 Zona 12 Ciudad de Guatemala, 01012</t>
   </si>
   <si>
@@ -181,32 +174,23 @@
     <t xml:space="preserve">Chimaltenango</t>
   </si>
   <si>
-    <t xml:space="preserve">El Tejar</t>
-  </si>
-  <si>
     <t xml:space="preserve">boulebard tulam tzu, 16 Calle 39-81, Cdad. de Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">Grúas Tornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de, Calz. San Juan 3-03, Cdad. de Guatemala 00010</t>
   </si>
   <si>
     <t xml:space="preserve">Cerrjaería
 El Punto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad de, Calz. San Juan 3-03, Cdad. de Guatemala 00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaragoza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carretera al Atlantico, Cdad. de Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">Grúas Rodas   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecpan</t>
   </si>
   <si>
     <t xml:space="preserve">Km 18 Ruta al Atlantico Ciudad de Guatemala, 01001</t>
@@ -490,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,10 +543,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,10 +613,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -735,7 +711,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,10 +828,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>14.5206901643329</v>
@@ -864,7 +840,7 @@
         <v>-90.5918066468794</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>12345679</v>
@@ -902,10 +878,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>14.6084525078562</v>
@@ -914,7 +890,7 @@
         <v>-90.5352887198671</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>12345680</v>
@@ -949,42 +925,42 @@
     </row>
     <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="17" t="n">
+        <v>14.6347999504637</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>-90.4988548003249</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18" t="n">
-        <v>14.6347999504637</v>
-      </c>
-      <c r="E5" s="19" t="n">
-        <v>-90.4988548003249</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>12345681</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="20" t="n">
         <v>55</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="25" t="s">
+      <c r="I5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="0" t="s">
@@ -999,42 +975,42 @@
     </row>
     <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="18" t="n">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="17" t="n">
         <v>14.6475953483417</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="18" t="n">
         <v>-90.5790942756871</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>32</v>
+      <c r="F6" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>12345682</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="28" t="s">
+      <c r="I6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="0" t="s">
@@ -1049,42 +1025,42 @@
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="28" t="n">
         <v>14.5477033095067</v>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="29" t="n">
         <v>-90.5993658969058</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>36</v>
+      <c r="F7" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>12345683</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="31" t="n">
         <v>65</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="35" t="s">
+      <c r="I7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="0" t="s">
@@ -1099,39 +1075,39 @@
     </row>
     <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="37" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="35" t="n">
         <v>14.6557990747769</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="36" t="n">
         <v>-90.4529562815965</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>39</v>
+      <c r="F8" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>12345684</v>
       </c>
-      <c r="H8" s="32" t="n">
+      <c r="H8" s="31" t="n">
         <v>88</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="40" t="s">
+      <c r="I8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="10" t="s">
